--- a/data/output/FV2304_FV2210/UTILMD/11035.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11035.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15572" uniqueCount="918">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15593" uniqueCount="918">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2972,6 +2972,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U713" totalsRowShown="0">
+  <autoFilter ref="A1:U713"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3261,7 +3291,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U713"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -36207,5 +36240,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11035.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11035.xlsx
@@ -5492,7 +5492,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -7582,7 +7582,7 @@
         <v>835</v>
       </c>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -7880,7 +7880,7 @@
         <v>836</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -8258,7 +8258,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -8442,7 +8442,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -8638,7 +8638,7 @@
         <v>840</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -8842,7 +8842,7 @@
         <v>841</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -9552,7 +9552,7 @@
         <v>835</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -9840,7 +9840,7 @@
         <v>842</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -10198,7 +10198,7 @@
         <v>845</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -10444,7 +10444,7 @@
         <v>847</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -10878,7 +10878,7 @@
         <v>849</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -11164,7 +11164,7 @@
         <v>850</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -11420,7 +11420,7 @@
         <v>849</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -11608,7 +11608,7 @@
         <v>849</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -11796,7 +11796,7 @@
         <v>851</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -11984,7 +11984,7 @@
         <v>852</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -12272,7 +12272,7 @@
         <v>853</v>
       </c>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -12556,7 +12556,7 @@
         <v>849</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -12954,7 +12954,7 @@
         <v>854</v>
       </c>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -13164,7 +13164,7 @@
         <v>851</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -13506,7 +13506,7 @@
         <v>849</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -13848,7 +13848,7 @@
         <v>849</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -14092,7 +14092,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -14284,7 +14284,7 @@
         <v>856</v>
       </c>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -14436,7 +14436,7 @@
         <v>857</v>
       </c>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -14726,7 +14726,7 @@
         <v>858</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -14984,7 +14984,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -15174,7 +15174,7 @@
         <v>840</v>
       </c>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -15472,7 +15472,7 @@
       </c>
       <c r="K206" s="2"/>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -15608,7 +15608,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -15814,7 +15814,7 @@
         <v>859</v>
       </c>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="K217" s="2"/>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -16230,7 +16230,7 @@
         <v>849</v>
       </c>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -16438,7 +16438,7 @@
         <v>861</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -16644,7 +16644,7 @@
         <v>862</v>
       </c>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -16782,7 +16782,7 @@
       </c>
       <c r="K232" s="2"/>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -17044,7 +17044,7 @@
         <v>865</v>
       </c>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -17288,7 +17288,7 @@
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -17530,7 +17530,7 @@
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -17882,7 +17882,7 @@
         <v>869</v>
       </c>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -18070,7 +18070,7 @@
         <v>869</v>
       </c>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -18316,7 +18316,7 @@
         <v>871</v>
       </c>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -18454,7 +18454,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -18604,7 +18604,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -18808,7 +18808,7 @@
         <v>873</v>
       </c>
       <c r="L273" s="4"/>
-      <c r="M273" s="2" t="s">
+      <c r="M273" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N273" s="2" t="s">
@@ -19204,7 +19204,7 @@
         <v>874</v>
       </c>
       <c r="L281" s="4"/>
-      <c r="M281" s="2" t="s">
+      <c r="M281" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N281" s="2" t="s">
@@ -19454,7 +19454,7 @@
         <v>876</v>
       </c>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N286" s="2" t="s">
@@ -19642,7 +19642,7 @@
         <v>849</v>
       </c>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -19780,7 +19780,7 @@
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="4"/>
-      <c r="M293" s="2" t="s">
+      <c r="M293" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N293" s="2" t="s">
@@ -20092,7 +20092,7 @@
         <v>877</v>
       </c>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -20338,7 +20338,7 @@
         <v>849</v>
       </c>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="K310" s="2"/>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -20756,7 +20756,7 @@
       </c>
       <c r="K313" s="2"/>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -21068,7 +21068,7 @@
       </c>
       <c r="K319" s="2"/>
       <c r="L319" s="4"/>
-      <c r="M319" s="2" t="s">
+      <c r="M319" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N319" s="2" t="s">
@@ -21220,7 +21220,7 @@
         <v>878</v>
       </c>
       <c r="L322" s="4"/>
-      <c r="M322" s="2" t="s">
+      <c r="M322" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N322" s="2" t="s">
@@ -21428,7 +21428,7 @@
         <v>879</v>
       </c>
       <c r="L326" s="4"/>
-      <c r="M326" s="2" t="s">
+      <c r="M326" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N326" s="2" t="s">
@@ -21634,7 +21634,7 @@
         <v>880</v>
       </c>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -21772,7 +21772,7 @@
       </c>
       <c r="K333" s="2"/>
       <c r="L333" s="4"/>
-      <c r="M333" s="2" t="s">
+      <c r="M333" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N333" s="2" t="s">
@@ -21916,7 +21916,7 @@
       </c>
       <c r="K336" s="2"/>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -22052,7 +22052,7 @@
       </c>
       <c r="K339" s="2"/>
       <c r="L339" s="4"/>
-      <c r="M339" s="2" t="s">
+      <c r="M339" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N339" s="2" t="s">
@@ -22688,7 +22688,7 @@
         <v>883</v>
       </c>
       <c r="L351" s="4"/>
-      <c r="M351" s="2" t="s">
+      <c r="M351" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N351" s="2" t="s">
@@ -22826,7 +22826,7 @@
       </c>
       <c r="K354" s="2"/>
       <c r="L354" s="4"/>
-      <c r="M354" s="2" t="s">
+      <c r="M354" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N354" s="2" t="s">
@@ -22970,7 +22970,7 @@
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="4"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N357" s="2" t="s">
@@ -23214,7 +23214,7 @@
         <v>884</v>
       </c>
       <c r="L362" s="4"/>
-      <c r="M362" s="2" t="s">
+      <c r="M362" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N362" s="2" t="s">
@@ -23594,7 +23594,7 @@
         <v>885</v>
       </c>
       <c r="L370" s="4"/>
-      <c r="M370" s="2" t="s">
+      <c r="M370" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N370" s="2" t="s">
@@ -23732,7 +23732,7 @@
       </c>
       <c r="K373" s="2"/>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -23884,7 +23884,7 @@
         <v>887</v>
       </c>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -24030,7 +24030,7 @@
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="4"/>
-      <c r="M379" s="2" t="s">
+      <c r="M379" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N379" s="2" t="s">
@@ -24166,7 +24166,7 @@
       </c>
       <c r="K382" s="2"/>
       <c r="L382" s="4"/>
-      <c r="M382" s="2" t="s">
+      <c r="M382" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N382" s="2" t="s">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="K387" s="2"/>
       <c r="L387" s="4"/>
-      <c r="M387" s="2" t="s">
+      <c r="M387" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N387" s="2" t="s">
@@ -24566,7 +24566,7 @@
         <v>849</v>
       </c>
       <c r="L390" s="4"/>
-      <c r="M390" s="2" t="s">
+      <c r="M390" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N390" s="2" t="s">
@@ -24962,7 +24962,7 @@
         <v>851</v>
       </c>
       <c r="L398" s="4"/>
-      <c r="M398" s="2" t="s">
+      <c r="M398" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N398" s="2" t="s">
@@ -25250,7 +25250,7 @@
         <v>888</v>
       </c>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -25388,7 +25388,7 @@
       </c>
       <c r="K407" s="2"/>
       <c r="L407" s="4"/>
-      <c r="M407" s="2" t="s">
+      <c r="M407" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N407" s="2" t="s">
@@ -25540,7 +25540,7 @@
         <v>889</v>
       </c>
       <c r="L410" s="4"/>
-      <c r="M410" s="2" t="s">
+      <c r="M410" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N410" s="2" t="s">
@@ -25686,7 +25686,7 @@
       </c>
       <c r="K413" s="2"/>
       <c r="L413" s="4"/>
-      <c r="M413" s="2" t="s">
+      <c r="M413" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N413" s="2" t="s">
@@ -26846,7 +26846,7 @@
         <v>851</v>
       </c>
       <c r="L435" s="4"/>
-      <c r="M435" s="2" t="s">
+      <c r="M435" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N435" s="2" t="s">
@@ -28024,7 +28024,7 @@
       </c>
       <c r="K457" s="2"/>
       <c r="L457" s="4"/>
-      <c r="M457" s="2" t="s">
+      <c r="M457" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N457" s="2" t="s">
@@ -28172,7 +28172,7 @@
         <v>892</v>
       </c>
       <c r="L460" s="4"/>
-      <c r="M460" s="2" t="s">
+      <c r="M460" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N460" s="2" t="s">
@@ -28380,7 +28380,7 @@
         <v>849</v>
       </c>
       <c r="L464" s="4"/>
-      <c r="M464" s="2" t="s">
+      <c r="M464" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N464" s="2" t="s">
@@ -28534,7 +28534,7 @@
         <v>849</v>
       </c>
       <c r="L467" s="4"/>
-      <c r="M467" s="2" t="s">
+      <c r="M467" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N467" s="2" t="s">
@@ -28740,7 +28740,7 @@
         <v>893</v>
       </c>
       <c r="L471" s="4"/>
-      <c r="M471" s="2" t="s">
+      <c r="M471" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N471" s="2" t="s">
@@ -29028,7 +29028,7 @@
         <v>894</v>
       </c>
       <c r="L477" s="4"/>
-      <c r="M477" s="2" t="s">
+      <c r="M477" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N477" s="2" t="s">
@@ -29166,7 +29166,7 @@
       </c>
       <c r="K480" s="2"/>
       <c r="L480" s="4"/>
-      <c r="M480" s="2" t="s">
+      <c r="M480" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N480" s="2" t="s">
@@ -29314,7 +29314,7 @@
       </c>
       <c r="K483" s="2"/>
       <c r="L483" s="4"/>
-      <c r="M483" s="2" t="s">
+      <c r="M483" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N483" s="2" t="s">
@@ -29450,7 +29450,7 @@
       </c>
       <c r="K486" s="2"/>
       <c r="L486" s="4"/>
-      <c r="M486" s="2" t="s">
+      <c r="M486" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N486" s="2" t="s">
@@ -29596,7 +29596,7 @@
         <v>894</v>
       </c>
       <c r="L489" s="4"/>
-      <c r="M489" s="2" t="s">
+      <c r="M489" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N489" s="2" t="s">
@@ -29734,7 +29734,7 @@
       </c>
       <c r="K492" s="2"/>
       <c r="L492" s="4"/>
-      <c r="M492" s="2" t="s">
+      <c r="M492" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N492" s="2" t="s">
@@ -29878,7 +29878,7 @@
       </c>
       <c r="K495" s="2"/>
       <c r="L495" s="4"/>
-      <c r="M495" s="2" t="s">
+      <c r="M495" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N495" s="2" t="s">
@@ -30014,7 +30014,7 @@
       </c>
       <c r="K498" s="2"/>
       <c r="L498" s="4"/>
-      <c r="M498" s="2" t="s">
+      <c r="M498" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N498" s="2" t="s">
@@ -30160,7 +30160,7 @@
       </c>
       <c r="K501" s="2"/>
       <c r="L501" s="4"/>
-      <c r="M501" s="2" t="s">
+      <c r="M501" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N501" s="2" t="s">
@@ -30364,7 +30364,7 @@
         <v>895</v>
       </c>
       <c r="L505" s="4"/>
-      <c r="M505" s="2" t="s">
+      <c r="M505" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N505" s="2" t="s">
@@ -30504,7 +30504,7 @@
         <v>896</v>
       </c>
       <c r="L508" s="4"/>
-      <c r="M508" s="2" t="s">
+      <c r="M508" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N508" s="2" t="s">
@@ -30764,7 +30764,7 @@
       </c>
       <c r="K513" s="2"/>
       <c r="L513" s="4"/>
-      <c r="M513" s="2" t="s">
+      <c r="M513" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N513" s="2" t="s">
@@ -30916,7 +30916,7 @@
         <v>898</v>
       </c>
       <c r="L516" s="4"/>
-      <c r="M516" s="2" t="s">
+      <c r="M516" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N516" s="2" t="s">
@@ -31064,7 +31064,7 @@
       </c>
       <c r="K519" s="2"/>
       <c r="L519" s="4"/>
-      <c r="M519" s="2" t="s">
+      <c r="M519" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N519" s="2" t="s">
@@ -31268,7 +31268,7 @@
         <v>900</v>
       </c>
       <c r="L523" s="4"/>
-      <c r="M523" s="2" t="s">
+      <c r="M523" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N523" s="2" t="s">
@@ -31664,7 +31664,7 @@
         <v>901</v>
       </c>
       <c r="L531" s="4"/>
-      <c r="M531" s="2" t="s">
+      <c r="M531" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N531" s="2" t="s">
@@ -31914,7 +31914,7 @@
         <v>876</v>
       </c>
       <c r="L536" s="4"/>
-      <c r="M536" s="2" t="s">
+      <c r="M536" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N536" s="2" t="s">
@@ -32102,7 +32102,7 @@
         <v>902</v>
       </c>
       <c r="L540" s="4"/>
-      <c r="M540" s="2" t="s">
+      <c r="M540" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N540" s="2" t="s">
@@ -32436,7 +32436,7 @@
         <v>903</v>
       </c>
       <c r="L547" s="4"/>
-      <c r="M547" s="2" t="s">
+      <c r="M547" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N547" s="2" t="s">
@@ -32624,7 +32624,7 @@
         <v>904</v>
       </c>
       <c r="L551" s="4"/>
-      <c r="M551" s="2" t="s">
+      <c r="M551" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N551" s="2" t="s">
@@ -32870,7 +32870,7 @@
         <v>905</v>
       </c>
       <c r="L556" s="4"/>
-      <c r="M556" s="2" t="s">
+      <c r="M556" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N556" s="2" t="s">
@@ -33008,7 +33008,7 @@
       </c>
       <c r="K559" s="2"/>
       <c r="L559" s="4"/>
-      <c r="M559" s="2" t="s">
+      <c r="M559" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N559" s="2" t="s">
@@ -33152,7 +33152,7 @@
       </c>
       <c r="K562" s="2"/>
       <c r="L562" s="4"/>
-      <c r="M562" s="2" t="s">
+      <c r="M562" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N562" s="2" t="s">
@@ -33290,7 +33290,7 @@
         <v>906</v>
       </c>
       <c r="L565" s="4"/>
-      <c r="M565" s="2" t="s">
+      <c r="M565" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N565" s="2" t="s">
@@ -33438,7 +33438,7 @@
       </c>
       <c r="K568" s="2"/>
       <c r="L568" s="4"/>
-      <c r="M568" s="2" t="s">
+      <c r="M568" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N568" s="2" t="s">
@@ -33750,7 +33750,7 @@
         <v>908</v>
       </c>
       <c r="L574" s="4"/>
-      <c r="M574" s="2" t="s">
+      <c r="M574" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N574" s="2" t="s">
@@ -33888,7 +33888,7 @@
       </c>
       <c r="K577" s="2"/>
       <c r="L577" s="4"/>
-      <c r="M577" s="2" t="s">
+      <c r="M577" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N577" s="2" t="s">
@@ -34032,7 +34032,7 @@
       </c>
       <c r="K580" s="2"/>
       <c r="L580" s="4"/>
-      <c r="M580" s="2" t="s">
+      <c r="M580" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N580" s="2" t="s">
@@ -34168,7 +34168,7 @@
       </c>
       <c r="K583" s="2"/>
       <c r="L583" s="4"/>
-      <c r="M583" s="2" t="s">
+      <c r="M583" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N583" s="2" t="s">
@@ -34314,7 +34314,7 @@
       </c>
       <c r="K586" s="2"/>
       <c r="L586" s="4"/>
-      <c r="M586" s="2" t="s">
+      <c r="M586" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N586" s="2" t="s">
@@ -34680,7 +34680,7 @@
         <v>909</v>
       </c>
       <c r="L593" s="4"/>
-      <c r="M593" s="2" t="s">
+      <c r="M593" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N593" s="2" t="s">
@@ -34818,7 +34818,7 @@
       </c>
       <c r="K596" s="2"/>
       <c r="L596" s="4"/>
-      <c r="M596" s="2" t="s">
+      <c r="M596" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N596" s="2" t="s">
@@ -34962,7 +34962,7 @@
       </c>
       <c r="K599" s="2"/>
       <c r="L599" s="4"/>
-      <c r="M599" s="2" t="s">
+      <c r="M599" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N599" s="2" t="s">
@@ -35098,7 +35098,7 @@
       </c>
       <c r="K602" s="2"/>
       <c r="L602" s="4"/>
-      <c r="M602" s="2" t="s">
+      <c r="M602" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N602" s="2" t="s">
@@ -35244,7 +35244,7 @@
       </c>
       <c r="K605" s="2"/>
       <c r="L605" s="4"/>
-      <c r="M605" s="2" t="s">
+      <c r="M605" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N605" s="2" t="s">
@@ -35394,7 +35394,7 @@
         <v>909</v>
       </c>
       <c r="L608" s="4"/>
-      <c r="M608" s="2" t="s">
+      <c r="M608" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N608" s="2" t="s">
@@ -35666,7 +35666,7 @@
       </c>
       <c r="K614" s="2"/>
       <c r="L614" s="4"/>
-      <c r="M614" s="2" t="s">
+      <c r="M614" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N614" s="2" t="s">
@@ -35816,7 +35816,7 @@
         <v>911</v>
       </c>
       <c r="L617" s="4"/>
-      <c r="M617" s="2" t="s">
+      <c r="M617" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N617" s="2" t="s">
@@ -35954,7 +35954,7 @@
       </c>
       <c r="K620" s="2"/>
       <c r="L620" s="4"/>
-      <c r="M620" s="2" t="s">
+      <c r="M620" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N620" s="2" t="s">
@@ -36100,7 +36100,7 @@
       </c>
       <c r="K623" s="2"/>
       <c r="L623" s="4"/>
-      <c r="M623" s="2" t="s">
+      <c r="M623" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N623" s="2" t="s">
@@ -36248,7 +36248,7 @@
       </c>
       <c r="K626" s="2"/>
       <c r="L626" s="4"/>
-      <c r="M626" s="2" t="s">
+      <c r="M626" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N626" s="2" t="s">
@@ -36384,7 +36384,7 @@
       </c>
       <c r="K629" s="2"/>
       <c r="L629" s="4"/>
-      <c r="M629" s="2" t="s">
+      <c r="M629" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N629" s="2" t="s">
@@ -36534,7 +36534,7 @@
         <v>912</v>
       </c>
       <c r="L632" s="4"/>
-      <c r="M632" s="2" t="s">
+      <c r="M632" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N632" s="2" t="s">
@@ -36670,7 +36670,7 @@
       </c>
       <c r="K635" s="2"/>
       <c r="L635" s="4"/>
-      <c r="M635" s="2" t="s">
+      <c r="M635" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N635" s="2" t="s">
@@ -36914,7 +36914,7 @@
       </c>
       <c r="K640" s="2"/>
       <c r="L640" s="4"/>
-      <c r="M640" s="2" t="s">
+      <c r="M640" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N640" s="2" t="s">
@@ -37112,7 +37112,7 @@
       </c>
       <c r="K644" s="2"/>
       <c r="L644" s="4"/>
-      <c r="M644" s="2" t="s">
+      <c r="M644" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N644" s="2" t="s">
@@ -37514,7 +37514,7 @@
         <v>914</v>
       </c>
       <c r="L652" s="4"/>
-      <c r="M652" s="2" t="s">
+      <c r="M652" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N652" s="2" t="s">
@@ -37652,7 +37652,7 @@
       </c>
       <c r="K655" s="2"/>
       <c r="L655" s="4"/>
-      <c r="M655" s="2" t="s">
+      <c r="M655" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N655" s="2" t="s">
@@ -37800,7 +37800,7 @@
       </c>
       <c r="K658" s="2"/>
       <c r="L658" s="4"/>
-      <c r="M658" s="2" t="s">
+      <c r="M658" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N658" s="2" t="s">
@@ -38144,7 +38144,7 @@
         <v>917</v>
       </c>
       <c r="L665" s="4"/>
-      <c r="M665" s="2" t="s">
+      <c r="M665" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N665" s="2" t="s">
@@ -38282,7 +38282,7 @@
       </c>
       <c r="K668" s="2"/>
       <c r="L668" s="4"/>
-      <c r="M668" s="2" t="s">
+      <c r="M668" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N668" s="2" t="s">
@@ -38430,7 +38430,7 @@
       </c>
       <c r="K671" s="2"/>
       <c r="L671" s="4"/>
-      <c r="M671" s="2" t="s">
+      <c r="M671" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N671" s="2" t="s">
@@ -38656,7 +38656,7 @@
       </c>
       <c r="K676" s="2"/>
       <c r="L676" s="4"/>
-      <c r="M676" s="2" t="s">
+      <c r="M676" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N676" s="2" t="s">
@@ -38990,7 +38990,7 @@
       </c>
       <c r="K683" s="2"/>
       <c r="L683" s="4"/>
-      <c r="M683" s="2" t="s">
+      <c r="M683" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N683" s="2" t="s">
@@ -39392,7 +39392,7 @@
         <v>859</v>
       </c>
       <c r="L691" s="4"/>
-      <c r="M691" s="2" t="s">
+      <c r="M691" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N691" s="2" t="s">
@@ -39688,7 +39688,7 @@
       </c>
       <c r="K697" s="2"/>
       <c r="L697" s="4"/>
-      <c r="M697" s="2" t="s">
+      <c r="M697" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N697" s="2" t="s">
@@ -39834,7 +39834,7 @@
       </c>
       <c r="K700" s="2"/>
       <c r="L700" s="4"/>
-      <c r="M700" s="2" t="s">
+      <c r="M700" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N700" s="2" t="s">
@@ -39982,7 +39982,7 @@
       </c>
       <c r="K703" s="2"/>
       <c r="L703" s="4"/>
-      <c r="M703" s="2" t="s">
+      <c r="M703" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N703" s="2" t="s">
@@ -40370,7 +40370,7 @@
       </c>
       <c r="K711" s="2"/>
       <c r="L711" s="4"/>
-      <c r="M711" s="2" t="s">
+      <c r="M711" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N711" s="2"/>
